--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H2">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>43.13075432856774</v>
+        <v>93.27323866106001</v>
       </c>
       <c r="R2">
-        <v>43.13075432856774</v>
+        <v>839.45914794954</v>
       </c>
       <c r="S2">
-        <v>0.0005810921290093321</v>
+        <v>0.0009365237493449971</v>
       </c>
       <c r="T2">
-        <v>0.0005810921290093321</v>
+        <v>0.0009365237493449972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H3">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>23.15254820935575</v>
+        <v>38.864738798592</v>
       </c>
       <c r="R3">
-        <v>23.15254820935575</v>
+        <v>349.782649187328</v>
       </c>
       <c r="S3">
-        <v>0.0003119297063175778</v>
+        <v>0.0003902271586090726</v>
       </c>
       <c r="T3">
-        <v>0.0003119297063175778</v>
+        <v>0.0003902271586090728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H4">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>1.875947484539014</v>
+        <v>3.235318184116</v>
       </c>
       <c r="R4">
-        <v>1.875947484539014</v>
+        <v>29.117863657044</v>
       </c>
       <c r="S4">
-        <v>2.527426971010448E-05</v>
+        <v>3.248469078170133E-05</v>
       </c>
       <c r="T4">
-        <v>2.527426971010448E-05</v>
+        <v>3.248469078170133E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H5">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>1.856843028095754</v>
+        <v>3.031877006568</v>
       </c>
       <c r="R5">
-        <v>1.856843028095754</v>
+        <v>27.286893059112</v>
       </c>
       <c r="S5">
-        <v>2.501687914411506E-05</v>
+        <v>3.044200954640338E-05</v>
       </c>
       <c r="T5">
-        <v>2.501687914411506E-05</v>
+        <v>3.044200954640339E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.0757908461083</v>
+        <v>14.110548</v>
       </c>
       <c r="H6">
-        <v>46.0757908461083</v>
+        <v>42.331644</v>
       </c>
       <c r="I6">
-        <v>0.005169994820940185</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J6">
-        <v>0.005169994820940185</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>236.3857810093731</v>
+        <v>3.74891391022</v>
       </c>
       <c r="R6">
-        <v>236.3857810093731</v>
+        <v>33.74022519198</v>
       </c>
       <c r="S6">
-        <v>0.003184778909913208</v>
+        <v>3.764152463847713E-05</v>
       </c>
       <c r="T6">
-        <v>0.003184778909913208</v>
+        <v>3.764152463847714E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H7">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>126.8916641043005</v>
+        <v>312.6255969831361</v>
       </c>
       <c r="R7">
-        <v>126.8916641043005</v>
+        <v>2813.630372848225</v>
       </c>
       <c r="S7">
-        <v>0.001709586312499663</v>
+        <v>0.003138963548717172</v>
       </c>
       <c r="T7">
-        <v>0.001709586312499663</v>
+        <v>0.003138963548717172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H8">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>10.28146430936882</v>
+        <v>130.2636462818133</v>
       </c>
       <c r="R8">
-        <v>10.28146430936882</v>
+        <v>1172.37281653632</v>
       </c>
       <c r="S8">
-        <v>0.0001385201366837069</v>
+        <v>0.001307931408520128</v>
       </c>
       <c r="T8">
-        <v>0.0001385201366837069</v>
+        <v>0.001307931408520129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H9">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>10.17675893318418</v>
+        <v>10.84387433372055</v>
       </c>
       <c r="R9">
-        <v>10.17675893318418</v>
+        <v>97.594869003485</v>
       </c>
       <c r="S9">
-        <v>0.0001371094618436068</v>
+        <v>0.0001088795242260814</v>
       </c>
       <c r="T9">
-        <v>0.0001371094618436068</v>
+        <v>0.0001088795242260814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7017.69588622476</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H10">
-        <v>7017.69588622476</v>
+        <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.7874298133675918</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J10">
-        <v>0.7874298133675918</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>36003.3651618075</v>
+        <v>10.16199686817</v>
       </c>
       <c r="R10">
-        <v>36003.3651618075</v>
+        <v>91.45797181353001</v>
       </c>
       <c r="S10">
-        <v>0.4850662233727244</v>
+        <v>0.0001020330326728952</v>
       </c>
       <c r="T10">
-        <v>0.4850662233727244</v>
+        <v>0.0001020330326728952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7017.69588622476</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H11">
-        <v>7017.69588622476</v>
+        <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.7874298133675918</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J11">
-        <v>0.7874298133675918</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>19326.57243269383</v>
+        <v>12.56530239589722</v>
       </c>
       <c r="R11">
-        <v>19326.57243269383</v>
+        <v>113.087721563075</v>
       </c>
       <c r="S11">
-        <v>0.2603830908176019</v>
+        <v>0.0001261637773104598</v>
       </c>
       <c r="T11">
-        <v>0.2603830908176019</v>
+        <v>0.0001261637773104598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H12">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>1565.945770289875</v>
+        <v>46456.23327060063</v>
       </c>
       <c r="R12">
-        <v>1565.945770289875</v>
+        <v>418106.0994354057</v>
       </c>
       <c r="S12">
-        <v>0.02109767788058808</v>
+        <v>0.4664506817558624</v>
       </c>
       <c r="T12">
-        <v>0.02109767788058808</v>
+        <v>0.4664506817558625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H13">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220869978492051</v>
+        <v>2.754304</v>
       </c>
       <c r="N13">
-        <v>0.220869978492051</v>
+        <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q13">
-        <v>1549.998339454218</v>
+        <v>19357.20682101846</v>
       </c>
       <c r="R13">
-        <v>1549.998339454218</v>
+        <v>174214.8613891661</v>
       </c>
       <c r="S13">
-        <v>0.02088282129667753</v>
+        <v>0.1943588983196215</v>
       </c>
       <c r="T13">
-        <v>0.02088282129667753</v>
+        <v>0.1943588983196216</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1724.75376012229</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H14">
-        <v>1724.75376012229</v>
+        <v>21083.95459</v>
       </c>
       <c r="I14">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J14">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.13036839234934</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N14">
-        <v>5.13036839234934</v>
+        <v>0.687851</v>
       </c>
       <c r="O14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q14">
-        <v>8848.622175517074</v>
+        <v>1611.402138742899</v>
       </c>
       <c r="R14">
-        <v>8848.622175517074</v>
+        <v>14502.61924868609</v>
       </c>
       <c r="S14">
-        <v>0.1192157377911816</v>
+        <v>0.01617952152558929</v>
       </c>
       <c r="T14">
-        <v>0.1192157377911816</v>
+        <v>0.01617952152558929</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1724.75376012229</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H15">
-        <v>1724.75376012229</v>
+        <v>21083.95459</v>
       </c>
       <c r="I15">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J15">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.75397691008961</v>
+        <v>0.214866</v>
       </c>
       <c r="N15">
-        <v>2.75397691008961</v>
+        <v>0.644598</v>
       </c>
       <c r="O15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q15">
-        <v>4749.932030967021</v>
+        <v>1510.07499564498</v>
       </c>
       <c r="R15">
-        <v>4749.932030967021</v>
+        <v>13590.67496080482</v>
       </c>
       <c r="S15">
-        <v>0.06399489551000173</v>
+        <v>0.01516213135744776</v>
       </c>
       <c r="T15">
-        <v>0.06399489551000173</v>
+        <v>0.01516213135744776</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1724.75376012229</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H16">
-        <v>1724.75376012229</v>
+        <v>21083.95459</v>
       </c>
       <c r="I16">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J16">
-        <v>0.1935282681747502</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.22314243815605</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N16">
-        <v>0.22314243815605</v>
+        <v>0.797045</v>
       </c>
       <c r="O16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q16">
-        <v>384.8657592525028</v>
+        <v>1867.206731798506</v>
       </c>
       <c r="R16">
-        <v>384.8657592525028</v>
+        <v>16804.86058618655</v>
       </c>
       <c r="S16">
-        <v>0.005185220312242485</v>
+        <v>0.01874796537965825</v>
       </c>
       <c r="T16">
-        <v>0.005185220312242485</v>
+        <v>0.01874796537965826</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H17">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.220869978492051</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N17">
-        <v>0.220869978492051</v>
+        <v>19.830535</v>
       </c>
       <c r="O17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q17">
-        <v>380.9463259022943</v>
+        <v>17703.86935163248</v>
       </c>
       <c r="R17">
-        <v>380.9463259022943</v>
+        <v>159334.8241646923</v>
       </c>
       <c r="S17">
-        <v>0.005132414561324415</v>
+        <v>0.1777583189038201</v>
       </c>
       <c r="T17">
-        <v>0.005132414561324415</v>
+        <v>0.1777583189038202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>115.221771198742</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H18">
-        <v>115.221771198742</v>
+        <v>8034.822266</v>
       </c>
       <c r="I18">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J18">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.13036839234934</v>
+        <v>2.754304</v>
       </c>
       <c r="N18">
-        <v>5.13036839234934</v>
+        <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q18">
-        <v>591.1301330685335</v>
+        <v>7376.781035510954</v>
       </c>
       <c r="R18">
-        <v>591.1301330685335</v>
+        <v>66391.02931959859</v>
       </c>
       <c r="S18">
-        <v>0.007964179456023224</v>
+        <v>0.07406766112816432</v>
       </c>
       <c r="T18">
-        <v>0.007964179456023224</v>
+        <v>0.07406766112816435</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>115.221771198742</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H19">
-        <v>115.221771198742</v>
+        <v>8034.822266</v>
       </c>
       <c r="I19">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J19">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.75397691008961</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N19">
-        <v>2.75397691008961</v>
+        <v>0.687851</v>
       </c>
       <c r="O19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q19">
-        <v>317.3180974209635</v>
+        <v>614.0845033878184</v>
       </c>
       <c r="R19">
-        <v>317.3180974209635</v>
+        <v>5526.760530490366</v>
       </c>
       <c r="S19">
-        <v>0.004275164014031783</v>
+        <v>0.006165806288953454</v>
       </c>
       <c r="T19">
-        <v>0.004275164014031783</v>
+        <v>0.006165806288953455</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>115.221771198742</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H20">
-        <v>115.221771198742</v>
+        <v>8034.822266</v>
       </c>
       <c r="I20">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J20">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.22314243815605</v>
+        <v>0.214866</v>
       </c>
       <c r="N20">
-        <v>0.22314243815605</v>
+        <v>0.644598</v>
       </c>
       <c r="O20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q20">
-        <v>25.71086695394583</v>
+        <v>575.4700403354519</v>
       </c>
       <c r="R20">
-        <v>25.71086695394583</v>
+        <v>5179.230363019068</v>
       </c>
       <c r="S20">
-        <v>0.0003463974291552854</v>
+        <v>0.00577809206099405</v>
       </c>
       <c r="T20">
-        <v>0.0003463974291552854</v>
+        <v>0.005778092060994051</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>115.221771198742</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H21">
-        <v>115.221771198742</v>
+        <v>8034.822266</v>
       </c>
       <c r="I21">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J21">
-        <v>0.01292861065253675</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.220869978492051</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N21">
-        <v>0.220869978492051</v>
+        <v>0.797045</v>
       </c>
       <c r="O21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q21">
-        <v>25.44903012648217</v>
+        <v>711.5683236671077</v>
       </c>
       <c r="R21">
-        <v>25.44903012648217</v>
+        <v>6404.11491300397</v>
       </c>
       <c r="S21">
-        <v>0.0003428697533264597</v>
+        <v>0.007144607005847059</v>
       </c>
       <c r="T21">
-        <v>0.0003428697533264597</v>
+        <v>0.007144607005847061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H22">
+        <v>355.157105</v>
+      </c>
+      <c r="I22">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J22">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>782.5506001334639</v>
+      </c>
+      <c r="R22">
+        <v>7042.955401201176</v>
+      </c>
+      <c r="S22">
+        <v>0.007857315052094712</v>
+      </c>
+      <c r="T22">
+        <v>0.007857315052094712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H23">
+        <v>355.157105</v>
+      </c>
+      <c r="I23">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J23">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>326.0702116433067</v>
+      </c>
+      <c r="R23">
+        <v>2934.63190478976</v>
+      </c>
+      <c r="S23">
+        <v>0.003273956190881084</v>
+      </c>
+      <c r="T23">
+        <v>0.003273956190881085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H24">
+        <v>355.157105</v>
+      </c>
+      <c r="I24">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J24">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>27.14390775903944</v>
+      </c>
+      <c r="R24">
+        <v>244.295169831355</v>
+      </c>
+      <c r="S24">
+        <v>0.0002725424208624931</v>
+      </c>
+      <c r="T24">
+        <v>0.0002725424208624932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H25">
+        <v>355.157105</v>
+      </c>
+      <c r="I25">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J25">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>25.43706217431</v>
+      </c>
+      <c r="R25">
+        <v>228.93355956879</v>
+      </c>
+      <c r="S25">
+        <v>0.0002554045852998997</v>
+      </c>
+      <c r="T25">
+        <v>0.0002554045852998998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>118.3857016666667</v>
+      </c>
+      <c r="H26">
+        <v>355.157105</v>
+      </c>
+      <c r="I26">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="J26">
+        <v>0.01197502584967427</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>31.45291052830277</v>
+      </c>
+      <c r="R26">
+        <v>283.076194754725</v>
+      </c>
+      <c r="S26">
+        <v>0.0003158076005360838</v>
+      </c>
+      <c r="T26">
+        <v>0.0003158076005360839</v>
       </c>
     </row>
   </sheetData>
